--- a/tools/字模显示工具.xlsx
+++ b/tools/字模显示工具.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\STM32\USBPlusFreeRTOS\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STM32\KeyboardFirmwareRTOS\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD623B77-D560-494F-ADBB-F40923D2AA47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C9CD7-6DE3-4A2F-8EC3-14CADA8765D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{3A017125-A69F-4B7D-A67E-41FC4B925520}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{3A017125-A69F-4B7D-A67E-41FC4B925520}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="1Bit" sheetId="3" r:id="rId1"/>
+    <sheet name="4Bit" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>0C</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,12 +113,30 @@
     <t>16*16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,16 +152,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -449,13 +483,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -528,11 +722,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,37 +746,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FF111111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF222222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF333333"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF404040"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF555555"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF666666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF777777"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF888888"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF999999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFAAAAAA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBBBBBB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDDDDD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEEEEE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -682,14 +1046,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
@@ -699,14 +1060,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
@@ -716,14 +1074,11 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
@@ -733,17 +1088,42 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -772,10 +1152,24 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{BC7AFEC7-7D07-42D2-B1DA-580FFD2899E5}">
-      <tableStyleElement type="wholeTable" dxfId="23"/>
-      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFEEEEEE"/>
+      <color rgb="FFDDDDDD"/>
+      <color rgb="FFCCCCCC"/>
+      <color rgb="FFBBBBBB"/>
+      <color rgb="FFAAAAAA"/>
+      <color rgb="FF999999"/>
+      <color rgb="FF888888"/>
+      <color rgb="FF777777"/>
+      <color rgb="FF666666"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1086,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC38A195-D628-4000-8072-53824431F56A}">
   <dimension ref="B1:BR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="CA11" sqref="CA11"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1096,88 +1490,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="R1" s="31" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="R1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="AA1" s="31" t="s">
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="AA1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AL1" s="31" t="s">
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AL1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
-      <c r="AX1" s="31"/>
-      <c r="AY1" s="31"/>
-      <c r="BA1" s="31" t="s">
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="BA1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="BB1" s="31"/>
-      <c r="BC1" s="31"/>
-      <c r="BD1" s="31"/>
-      <c r="BE1" s="31"/>
-      <c r="BF1" s="31"/>
-      <c r="BG1" s="31"/>
-      <c r="BH1" s="31"/>
-      <c r="BI1" s="31"/>
-      <c r="BJ1" s="31"/>
-      <c r="BK1" s="31"/>
-      <c r="BL1" s="31"/>
-      <c r="BM1" s="31"/>
-      <c r="BN1" s="31"/>
-      <c r="BO1" s="31"/>
-      <c r="BP1" s="31"/>
-      <c r="BQ1" s="31"/>
-      <c r="BR1" s="31"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
     </row>
     <row r="2" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="17">
         <v>0</v>
       </c>
@@ -1191,10 +1585,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="27"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="17">
         <v>0</v>
       </c>
@@ -1214,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="Q2" s="16"/>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="27"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="17">
         <v>0</v>
       </c>
@@ -1237,10 +1631,10 @@
         <v>5</v>
       </c>
       <c r="Z2" s="16"/>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="27"/>
+      <c r="AB2" s="30"/>
       <c r="AC2" s="17">
         <v>0</v>
       </c>
@@ -1265,10 +1659,10 @@
       <c r="AJ2" s="18">
         <v>7</v>
       </c>
-      <c r="AL2" s="26" t="s">
+      <c r="AL2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AM2" s="27"/>
+      <c r="AM2" s="30"/>
       <c r="AN2" s="17">
         <v>0</v>
       </c>
@@ -1305,10 +1699,10 @@
       <c r="AY2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="BA2" s="26" t="s">
+      <c r="BA2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="BB2" s="27"/>
+      <c r="BB2" s="30"/>
       <c r="BC2" s="17">
         <v>0</v>
       </c>
@@ -1359,10 +1753,10 @@
       </c>
     </row>
     <row r="3" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="16">
         <v>19</v>
       </c>
@@ -1376,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="24"/>
+      <c r="J3" s="32"/>
       <c r="K3" s="16">
         <v>36</v>
       </c>
@@ -1399,10 +1793,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16"/>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="24"/>
+      <c r="S3" s="32"/>
       <c r="T3" s="16">
         <v>4</v>
       </c>
@@ -1422,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="Z3" s="16"/>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="24"/>
+      <c r="AB3" s="32"/>
       <c r="AC3" s="16" t="s">
         <v>13</v>
       </c>
@@ -1450,10 +1844,10 @@
       <c r="AJ3" s="19">
         <v>0</v>
       </c>
-      <c r="AL3" s="28" t="s">
+      <c r="AL3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AM3" s="24"/>
+      <c r="AM3" s="32"/>
       <c r="AN3" s="16">
         <v>0</v>
       </c>
@@ -1490,10 +1884,10 @@
       <c r="AY3" s="19">
         <v>0</v>
       </c>
-      <c r="BA3" s="28" t="s">
+      <c r="BA3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="BB3" s="24"/>
+      <c r="BB3" s="32"/>
       <c r="BC3" s="16">
         <v>0</v>
       </c>
@@ -1544,3482 +1938,3482 @@
       </c>
     </row>
     <row r="4" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="22">
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM4),2)</f>
+        <f t="shared" ref="D4:G11" si="0">MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM4),2)</f>
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM4),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM4),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="5">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM4),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="22">
         <v>0</v>
       </c>
       <c r="K4" s="3">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM4),2)</f>
+        <f t="shared" ref="K4:P11" si="1">MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="L4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM4),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM4),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM4),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM4),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P4" s="5">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM4),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q4" s="16"/>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="S4" s="22">
         <v>0</v>
       </c>
       <c r="T4" s="3">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM4),2)</f>
+        <f t="shared" ref="T4:Y11" si="2">MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="U4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM4),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM4),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM4),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM4),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y4" s="5">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM4),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z4" s="16"/>
-      <c r="AA4" s="28" t="s">
+      <c r="AA4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="AB4" s="22">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM4),2)</f>
+        <f t="shared" ref="AC4:AJ11" si="3">MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="AD4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM4),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ4" s="5">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM4),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="28" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="AM4" s="22">
         <v>0</v>
       </c>
       <c r="AN4" s="3">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM4),2)</f>
+        <f t="shared" ref="AN4:AY11" si="4">MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="AO4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM4),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY4" s="5">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM4),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA4" s="28" t="s">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="31" t="s">
         <v>1</v>
       </c>
       <c r="BB4" s="22">
         <v>0</v>
       </c>
       <c r="BC4" s="3">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM4),2)</f>
+        <f t="shared" ref="BC4:BI4" si="5">MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="BD4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM4),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BE4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM4),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BF4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM4),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BG4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM4),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BH4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM4),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BI4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$3),$AM4),2)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="BJ4" s="4">
-        <f t="shared" ref="BJ4:BL19" si="0">MOD(_xlfn.BITRSHIFT(HEX2DEC(BJ$3),$AM4),2)</f>
+        <f t="shared" ref="BJ4:BL11" si="6">MOD(_xlfn.BITRSHIFT(HEX2DEC(BJ$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="BK4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM4),2)</f>
+        <f t="shared" ref="BM4:BR11" si="7">MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM4),2)</f>
         <v>0</v>
       </c>
       <c r="BN4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM4),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM4),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM4),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ4" s="4">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM4),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR4" s="5">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM4),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B5" s="28"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="22">
         <v>1</v>
       </c>
       <c r="D5" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM5),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM5),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM5),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM5),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="16"/>
-      <c r="I5" s="28"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="22">
         <v>1</v>
       </c>
       <c r="K5" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM5),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM5),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM5),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM5),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM5),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM5),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="28"/>
+      <c r="R5" s="31"/>
       <c r="S5" s="22">
         <v>1</v>
       </c>
       <c r="T5" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM5),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM5),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM5),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM5),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM5),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM5),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="16"/>
-      <c r="AA5" s="28"/>
+      <c r="AA5" s="31"/>
       <c r="AB5" s="22">
         <v>1</v>
       </c>
       <c r="AC5" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM5),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ5" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM5),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="31"/>
       <c r="AM5" s="22">
         <v>1</v>
       </c>
       <c r="AN5" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM5),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY5" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM5),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA5" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA5" s="31"/>
       <c r="BB5" s="22">
         <v>1</v>
       </c>
       <c r="BC5" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM5),2)</f>
+        <f t="shared" ref="BC5:BH11" si="8">MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM5),2)</f>
         <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM5),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM5),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM5),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM5),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM5),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <f t="shared" ref="BI5:BI19" si="1">MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$3),$AM5),2)</f>
+        <f t="shared" ref="BI5:BI11" si="9">MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$3),$AM5),2)</f>
         <v>0</v>
       </c>
       <c r="BJ5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM5),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM5),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM5),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM5),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ5" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM5),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR5" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM5),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="22">
         <v>2</v>
       </c>
       <c r="D6" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM6),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM6),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM6),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM6),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="16"/>
-      <c r="I6" s="28"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="22">
         <v>2</v>
       </c>
       <c r="K6" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM6),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM6),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM6),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM6),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM6),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM6),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q6" s="16"/>
-      <c r="R6" s="28"/>
+      <c r="R6" s="31"/>
       <c r="S6" s="22">
         <v>2</v>
       </c>
       <c r="T6" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM6),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="U6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM6),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM6),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM6),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM6),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y6" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM6),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="16"/>
-      <c r="AA6" s="28"/>
+      <c r="AA6" s="31"/>
       <c r="AB6" s="22">
         <v>2</v>
       </c>
       <c r="AC6" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM6),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AJ6" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM6),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="31"/>
       <c r="AM6" s="22">
         <v>2</v>
       </c>
       <c r="AN6" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM6),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY6" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM6),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA6" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="31"/>
       <c r="BB6" s="22">
         <v>2</v>
       </c>
       <c r="BC6" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM6),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM6),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM6),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM6),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM6),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM6),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM6),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM6),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM6),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM6),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ6" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM6),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR6" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM6),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="22">
         <v>3</v>
       </c>
       <c r="D7" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM7),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM7),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM7),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G7" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM7),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="16"/>
-      <c r="I7" s="28"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="22">
         <v>3</v>
       </c>
       <c r="K7" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM7),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM7),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM7),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM7),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM7),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P7" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM7),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q7" s="16"/>
-      <c r="R7" s="28"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="22">
         <v>3</v>
       </c>
       <c r="T7" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM7),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM7),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM7),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM7),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM7),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="Y7" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM7),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="16"/>
-      <c r="AA7" s="28"/>
+      <c r="AA7" s="31"/>
       <c r="AB7" s="22">
         <v>3</v>
       </c>
       <c r="AC7" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AI7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM7),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ7" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="31"/>
       <c r="AM7" s="22">
         <v>3</v>
       </c>
       <c r="AN7" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM7),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY7" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM7),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA7" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="31"/>
       <c r="BB7" s="22">
         <v>3</v>
       </c>
       <c r="BC7" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM7),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM7),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM7),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM7),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM7),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM7),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI7" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL7" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM7),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM7),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM7),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM7),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ7" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM7),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR7" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM7),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B8" s="28"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="22">
         <v>4</v>
       </c>
       <c r="D8" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM8),2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM8),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM8),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM8),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="16"/>
-      <c r="I8" s="28"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="22">
         <v>4</v>
       </c>
       <c r="K8" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM8),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM8),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM8),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM8),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM8),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P8" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM8),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q8" s="16"/>
-      <c r="R8" s="28"/>
+      <c r="R8" s="31"/>
       <c r="S8" s="22">
         <v>4</v>
       </c>
       <c r="T8" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM8),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM8),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM8),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM8),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM8),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y8" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM8),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="16"/>
-      <c r="AA8" s="28"/>
+      <c r="AA8" s="31"/>
       <c r="AB8" s="22">
         <v>4</v>
       </c>
       <c r="AC8" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AG8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM8),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ8" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="31"/>
       <c r="AM8" s="22">
         <v>4</v>
       </c>
       <c r="AN8" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM8),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY8" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM8),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA8" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="31"/>
       <c r="BB8" s="22">
         <v>4</v>
       </c>
       <c r="BC8" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM8),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM8),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM8),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM8),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM8),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM8),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM8),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM8),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM8),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM8),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ8" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM8),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR8" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM8),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="22">
         <v>5</v>
       </c>
       <c r="D9" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM9),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM9),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM9),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM9),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="16"/>
-      <c r="I9" s="28"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="22">
         <v>5</v>
       </c>
       <c r="K9" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM9),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM9),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM9),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM9),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM9),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM9),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="16"/>
-      <c r="R9" s="28"/>
+      <c r="R9" s="31"/>
       <c r="S9" s="22">
         <v>5</v>
       </c>
       <c r="T9" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM9),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM9),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM9),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM9),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM9),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y9" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM9),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="16"/>
-      <c r="AA9" s="28"/>
+      <c r="AA9" s="31"/>
       <c r="AB9" s="22">
         <v>5</v>
       </c>
       <c r="AC9" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AG9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM9),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ9" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM9),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="31"/>
       <c r="AM9" s="22">
         <v>5</v>
       </c>
       <c r="AN9" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM9),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY9" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM9),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="31"/>
       <c r="BB9" s="22">
         <v>5</v>
       </c>
       <c r="BC9" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM9),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM9),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM9),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM9),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM9),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM9),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM9),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM9),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM9),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM9),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ9" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM9),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR9" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM9),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="B10" s="28"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="22">
         <v>6</v>
       </c>
       <c r="D10" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM10),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM10),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM10),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM10),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="22">
         <v>6</v>
       </c>
       <c r="K10" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM10),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM10),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM10),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM10),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM10),2)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM10),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="16"/>
-      <c r="R10" s="28"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="22">
         <v>6</v>
       </c>
       <c r="T10" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM10),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM10),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM10),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM10),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="X10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM10),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y10" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM10),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="16"/>
-      <c r="AA10" s="28"/>
+      <c r="AA10" s="31"/>
       <c r="AB10" s="22">
         <v>6</v>
       </c>
       <c r="AC10" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AG10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM10),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ10" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM10),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="31"/>
       <c r="AM10" s="22">
         <v>6</v>
       </c>
       <c r="AN10" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AR10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM10),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY10" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM10),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA10" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="31"/>
       <c r="BB10" s="22">
         <v>6</v>
       </c>
       <c r="BC10" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM10),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM10),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM10),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM10),2)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BG10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM10),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BH10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM10),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM10),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM10),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM10),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM10),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ10" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM10),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR10" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM10),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:70" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="32">
+      <c r="B11" s="27"/>
+      <c r="C11" s="26">
         <v>7</v>
       </c>
       <c r="D11" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(D$3),$AM11),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(E$3),$AM11),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(F$3),$AM11),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G11" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(G$3),$AM11),2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="16"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="32">
+      <c r="I11" s="27"/>
+      <c r="J11" s="26">
         <v>7</v>
       </c>
       <c r="K11" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(K$3),$AM11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(L$3),$AM11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(M$3),$AM11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(N$3),$AM11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(O$3),$AM11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(P$3),$AM11),2)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="28"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="22">
         <v>7</v>
       </c>
       <c r="T11" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$3),$AM11),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$3),$AM11),2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="V11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$3),$AM11),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$3),$AM11),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$3),$AM11),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y11" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$3),$AM11),2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="16"/>
-      <c r="AA11" s="28"/>
+      <c r="AA11" s="31"/>
       <c r="AB11" s="22">
         <v>7</v>
       </c>
       <c r="AC11" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AG11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AI11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$3),$AM11),2)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AJ11" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$3),$AM11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="28"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="31"/>
       <c r="AM11" s="22">
         <v>7</v>
       </c>
       <c r="AN11" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AP11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AR11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AS11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AT11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AU11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AV11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AW11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AX11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$3),$AM11),2)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AY11" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$3),$AM11),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA11" s="28"/>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="31"/>
       <c r="BB11" s="22">
         <v>7</v>
       </c>
       <c r="BC11" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$3),$AM11),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BD11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$3),$AM11),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BE11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$3),$AM11),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BF11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$3),$AM11),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BG11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$3),$AM11),2)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="BH11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$3),$AM11),2)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="BI11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BJ11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BK11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BL11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BM11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$3),$AM11),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BN11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$3),$AM11),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BO11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$3),$AM11),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BP11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$3),$AM11),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BQ11" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$3),$AM11),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BR11" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$3),$AM11),2)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:70" x14ac:dyDescent="0.2">
       <c r="H12" s="16"/>
-      <c r="R12" s="28" t="s">
+      <c r="R12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="S12" s="22">
         <v>0</v>
       </c>
       <c r="T12" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM12),2)</f>
+        <f t="shared" ref="T12:Y19" si="10">MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM12),2)</f>
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM12),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM12),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM12),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM12),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y12" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM12),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z12" s="16"/>
-      <c r="AA12" s="28" t="s">
+      <c r="AA12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="AB12" s="22">
         <v>0</v>
       </c>
       <c r="AC12" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM12),2)</f>
+        <f t="shared" ref="AC12:AJ19" si="11">MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM12),2)</f>
         <v>1</v>
       </c>
       <c r="AD12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM12),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM12),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AF12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM12),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM12),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AH12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM12),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM12),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM12),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="28" t="s">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="AM12" s="22">
         <v>0</v>
       </c>
       <c r="AN12" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM12),2)</f>
+        <f t="shared" ref="AN12:AY19" si="12">MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM12),2)</f>
         <v>0</v>
       </c>
       <c r="AO12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AS12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AT12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM12),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY12" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM12),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA12" s="28" t="s">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="31" t="s">
         <v>1</v>
       </c>
       <c r="BB12" s="22">
         <v>0</v>
       </c>
       <c r="BC12" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM12),2)</f>
+        <f t="shared" ref="BC12:BH19" si="13">MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM12),2)</f>
         <v>0</v>
       </c>
       <c r="BD12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM12),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM12),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM12),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM12),2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BH12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM12),2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BI12" s="2">
-        <f t="shared" ref="BI12:BL18" si="2">MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$20),$AM12),2)</f>
+        <f t="shared" ref="BI12:BL18" si="14">MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$20),$AM12),2)</f>
         <v>0</v>
       </c>
       <c r="BJ12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM12),2)</f>
+        <f t="shared" ref="BM12:BR19" si="15">MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM12),2)</f>
         <v>0</v>
       </c>
       <c r="BN12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM12),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM12),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM12),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ12" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM12),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR12" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM12),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H13" s="16"/>
-      <c r="R13" s="28"/>
+      <c r="R13" s="31"/>
       <c r="S13" s="22">
         <v>1</v>
       </c>
       <c r="T13" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM13),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM13),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="V13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM13),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM13),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM13),2)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Y13" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM13),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z13" s="16"/>
-      <c r="AA13" s="28"/>
+      <c r="AA13" s="31"/>
       <c r="AB13" s="22">
         <v>1</v>
       </c>
       <c r="AC13" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AD13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AF13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AH13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM13),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM13),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="31"/>
       <c r="AM13" s="22">
         <v>1</v>
       </c>
       <c r="AN13" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AT13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM13),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY13" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM13),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA13" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="31"/>
       <c r="BB13" s="22">
         <v>1</v>
       </c>
       <c r="BC13" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM13),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM13),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM13),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM13),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM13),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM13),2)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BI13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM13),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM13),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM13),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM13),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ13" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM13),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR13" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM13),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:70" x14ac:dyDescent="0.2">
       <c r="H14" s="16"/>
-      <c r="R14" s="28"/>
+      <c r="R14" s="31"/>
       <c r="S14" s="22">
         <v>2</v>
       </c>
       <c r="T14" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM14),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM14),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM14),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM14),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM14),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y14" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM14),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z14" s="16"/>
-      <c r="AA14" s="28"/>
+      <c r="AA14" s="31"/>
       <c r="AB14" s="22">
         <v>2</v>
       </c>
       <c r="AC14" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AF14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AH14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AI14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM14),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM14),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="31"/>
       <c r="AM14" s="22">
         <v>2</v>
       </c>
       <c r="AN14" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM14),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY14" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM14),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA14" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="31"/>
       <c r="BB14" s="22">
         <v>2</v>
       </c>
       <c r="BC14" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM14),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM14),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM14),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM14),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM14),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM14),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM14),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM14),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM14),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM14),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ14" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM14),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR14" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM14),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:70" x14ac:dyDescent="0.2">
       <c r="H15" s="16"/>
-      <c r="R15" s="28"/>
+      <c r="R15" s="31"/>
       <c r="S15" s="22">
         <v>3</v>
       </c>
       <c r="T15" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM15),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM15),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM15),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM15),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM15),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM15),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z15" s="16"/>
-      <c r="AA15" s="28"/>
+      <c r="AA15" s="31"/>
       <c r="AB15" s="22">
         <v>3</v>
       </c>
       <c r="AC15" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AI15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM15),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM15),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="31"/>
       <c r="AM15" s="22">
         <v>3</v>
       </c>
       <c r="AN15" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM15),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY15" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM15),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="31"/>
       <c r="BB15" s="22">
         <v>3</v>
       </c>
       <c r="BC15" s="13">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM15),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM15),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM15),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM15),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM15),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM15),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL15" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM15),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM15),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM15),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM15),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ15" s="14">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM15),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR15" s="15">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM15),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:70" x14ac:dyDescent="0.2">
       <c r="H16" s="16"/>
-      <c r="R16" s="28"/>
+      <c r="R16" s="31"/>
       <c r="S16" s="22">
         <v>4</v>
       </c>
       <c r="T16" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM16),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM16),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM16),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM16),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM16),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y16" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM16),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z16" s="16"/>
-      <c r="AA16" s="28"/>
+      <c r="AA16" s="31"/>
       <c r="AB16" s="22">
         <v>4</v>
       </c>
       <c r="AC16" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AI16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM16),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ16" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM16),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="31"/>
       <c r="AM16" s="22">
         <v>4</v>
       </c>
       <c r="AN16" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM16),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY16" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM16),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA16" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA16" s="31"/>
       <c r="BB16" s="22">
         <v>4</v>
       </c>
       <c r="BC16" s="11">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM16),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM16),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM16),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM16),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM16),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM16),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM16),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM16),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM16),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM16),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ16" s="2">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM16),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR16" s="12">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM16),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="8:70" x14ac:dyDescent="0.2">
       <c r="H17" s="16"/>
-      <c r="R17" s="28"/>
+      <c r="R17" s="31"/>
       <c r="S17" s="22">
         <v>5</v>
       </c>
       <c r="T17" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM17),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM17),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM17),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM17),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM17),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM17),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z17" s="16"/>
-      <c r="AA17" s="28"/>
+      <c r="AA17" s="31"/>
       <c r="AB17" s="22">
         <v>5</v>
       </c>
       <c r="AC17" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AI17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM17),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM17),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="31"/>
       <c r="AM17" s="22">
         <v>5</v>
       </c>
       <c r="AN17" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM17),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY17" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM17),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="31"/>
       <c r="BB17" s="22">
         <v>5</v>
       </c>
       <c r="BC17" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM17),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM17),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM17),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM17),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM17),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM17),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM17),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM17),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM17),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM17),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ17" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM17),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR17" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM17),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="8:70" x14ac:dyDescent="0.2">
       <c r="H18" s="16"/>
-      <c r="R18" s="28"/>
+      <c r="R18" s="31"/>
       <c r="S18" s="22">
         <v>6</v>
       </c>
       <c r="T18" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM18),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM18),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM18),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM18),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM18),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y18" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM18),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z18" s="16"/>
-      <c r="AA18" s="28"/>
+      <c r="AA18" s="31"/>
       <c r="AB18" s="22">
         <v>6</v>
       </c>
       <c r="AC18" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM18),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM18),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="31"/>
       <c r="AM18" s="22">
         <v>6</v>
       </c>
       <c r="AN18" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM18),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY18" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM18),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA18" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="31"/>
       <c r="BB18" s="22">
         <v>6</v>
       </c>
       <c r="BC18" s="6">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM18),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM18),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM18),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM18),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM18),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM18),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BJ18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BK18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BL18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="BM18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM18),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM18),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM18),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM18),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ18" s="1">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM18),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR18" s="7">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM18),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="8:70" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="16"/>
-      <c r="R19" s="28"/>
+      <c r="R19" s="31"/>
       <c r="S19" s="22">
         <v>7</v>
       </c>
       <c r="T19" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(T$20),$AM19),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(U$20),$AM19),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(V$20),$AM19),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(W$20),$AM19),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(X$20),$AM19),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y19" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(Y$20),$AM19),2)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z19" s="16"/>
-      <c r="AA19" s="28"/>
+      <c r="AA19" s="31"/>
       <c r="AB19" s="22">
         <v>7</v>
       </c>
       <c r="AC19" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AC$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AD$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AE$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AF$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AG$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AH$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AI19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AI$20),$AM19),2)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AJ$20),$AM19),2)</f>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="28"/>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="31"/>
       <c r="AM19" s="22">
         <v>7</v>
       </c>
       <c r="AN19" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AN$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AO19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AO$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AP19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AP$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AQ19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AQ$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AR19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AR$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AS$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AT19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AT$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AU19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AU$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AV19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AV$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AW19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AW$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AX19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AX$20),$AM19),2)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AY19" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(AY$20),$AM19),2)</f>
-        <v>0</v>
-      </c>
-      <c r="BA19" s="28"/>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="31"/>
       <c r="BB19" s="22">
         <v>7</v>
       </c>
       <c r="BC19" s="8">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BC$20),$AM19),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BD19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BD$20),$AM19),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BE$20),$AM19),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BF19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BF$20),$AM19),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BG$20),$AM19),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BH19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BH$20),$AM19),2)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BI19" s="9">
-        <f t="shared" ref="BI19:BL19" si="3">MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$20),$AM19),2)</f>
+        <f t="shared" ref="BI19:BL19" si="16">MOD(_xlfn.BITRSHIFT(HEX2DEC(BI$20),$AM19),2)</f>
         <v>0</v>
       </c>
       <c r="BJ19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BK19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BL19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BM19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BM$20),$AM19),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BN19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BN$20),$AM19),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BO19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BO$20),$AM19),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BP19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BP$20),$AM19),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BQ19" s="9">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BQ$20),$AM19),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BR19" s="10">
-        <f>MOD(_xlfn.BITRSHIFT(HEX2DEC(BR$20),$AM19),2)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="8:70" x14ac:dyDescent="0.2">
-      <c r="H20" s="25"/>
-      <c r="R20" s="28" t="s">
+      <c r="H20" s="24"/>
+      <c r="R20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="24"/>
-      <c r="T20" s="25">
+      <c r="S20" s="32"/>
+      <c r="T20" s="24">
         <v>2</v>
       </c>
-      <c r="U20" s="25">
+      <c r="U20" s="24">
         <v>3</v>
       </c>
-      <c r="V20" s="25">
+      <c r="V20" s="24">
         <v>2</v>
       </c>
-      <c r="W20" s="25">
+      <c r="W20" s="24">
         <v>2</v>
       </c>
-      <c r="X20" s="25">
+      <c r="X20" s="24">
         <v>3</v>
       </c>
-      <c r="Y20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="28" t="s">
+      <c r="Y20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="25">
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="24">
         <v>3</v>
       </c>
-      <c r="AD20" s="25" t="s">
+      <c r="AD20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AE20" s="25">
+      <c r="AE20" s="24">
         <v>7</v>
       </c>
-      <c r="AF20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="25">
+      <c r="AF20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="24">
         <v>7</v>
       </c>
-      <c r="AH20" s="25" t="s">
+      <c r="AH20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AI20" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="29">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="28" t="s">
+      <c r="AI20" s="24">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AM20" s="24"/>
+      <c r="AM20" s="32"/>
       <c r="AN20">
         <v>0</v>
       </c>
@@ -5056,10 +5450,10 @@
       <c r="AY20" s="19">
         <v>0</v>
       </c>
-      <c r="BA20" s="28" t="s">
+      <c r="BA20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="BB20" s="24"/>
+      <c r="BB20" s="32"/>
       <c r="BC20">
         <v>0</v>
       </c>
@@ -5111,10 +5505,10 @@
     </row>
     <row r="21" spans="8:70" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H21" s="16"/>
-      <c r="R21" s="30" t="s">
+      <c r="R21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="31"/>
+      <c r="S21" s="28"/>
       <c r="T21" s="20" t="s">
         <v>6</v>
       </c>
@@ -5134,10 +5528,10 @@
         <v>11</v>
       </c>
       <c r="Z21" s="16"/>
-      <c r="AA21" s="30" t="s">
+      <c r="AA21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AB21" s="31"/>
+      <c r="AB21" s="28"/>
       <c r="AC21" s="20">
         <v>8</v>
       </c>
@@ -5162,10 +5556,10 @@
       <c r="AJ21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AL21" s="30" t="s">
+      <c r="AL21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AM21" s="31"/>
+      <c r="AM21" s="28"/>
       <c r="AN21" s="20" t="s">
         <v>6</v>
       </c>
@@ -5202,10 +5596,10 @@
       <c r="AY21" s="21">
         <v>17</v>
       </c>
-      <c r="BA21" s="30" t="s">
+      <c r="BA21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BB21" s="31"/>
+      <c r="BB21" s="28"/>
       <c r="BC21" s="20">
         <v>0</v>
       </c>
@@ -5273,33 +5667,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="BA21:BB21"/>
-    <mergeCell ref="BA1:BR1"/>
-    <mergeCell ref="AL1:AY1"/>
-    <mergeCell ref="BA2:BB2"/>
-    <mergeCell ref="BA3:BB3"/>
-    <mergeCell ref="BA4:BA11"/>
-    <mergeCell ref="BA12:BA19"/>
-    <mergeCell ref="BA20:BB20"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AA11"/>
-    <mergeCell ref="AA12:AA19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="AA1:AJ1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:R11"/>
-    <mergeCell ref="R12:R19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AL20:AM20"/>
-    <mergeCell ref="AL21:AM21"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:B11"/>
     <mergeCell ref="I2:J2"/>
@@ -5309,57 +5676,2309 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:I11"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:R11"/>
+    <mergeCell ref="R12:R19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="AA1:AJ1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AA11"/>
+    <mergeCell ref="AA12:AA19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="BA21:BB21"/>
+    <mergeCell ref="BA1:BR1"/>
+    <mergeCell ref="AL1:AY1"/>
+    <mergeCell ref="BA2:BB2"/>
+    <mergeCell ref="BA3:BB3"/>
+    <mergeCell ref="BA4:BA11"/>
+    <mergeCell ref="BA12:BA19"/>
+    <mergeCell ref="BA20:BB20"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AL20:AM20"/>
+    <mergeCell ref="AL21:AM21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:G11">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN4:AY19">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:P11">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:Y19">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AJ19">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BR19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4347B45B-D90C-4A46-9E33-7274DBE49D81}">
+  <dimension ref="E1:BG22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BC18" sqref="BC18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="24" width="2.625" style="33" customWidth="1"/>
+    <col min="25" max="26" width="2.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.75" style="33" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.625" style="33" bestFit="1" customWidth="1"/>
+    <col min="29" max="34" width="2.5" style="33" bestFit="1" customWidth="1"/>
+    <col min="35" max="548" width="2.625" style="33" customWidth="1"/>
+    <col min="549" max="16384" width="9" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:59" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E2" s="34"/>
+      <c r="F2" s="35">
+        <v>1</v>
+      </c>
+      <c r="G2" s="35">
+        <v>2</v>
+      </c>
+      <c r="H2" s="35">
+        <v>3</v>
+      </c>
+      <c r="I2" s="35">
+        <v>4</v>
+      </c>
+      <c r="J2" s="35">
+        <v>5</v>
+      </c>
+      <c r="K2" s="35">
+        <v>6</v>
+      </c>
+      <c r="L2" s="35">
+        <v>7</v>
+      </c>
+      <c r="M2" s="35">
+        <v>8</v>
+      </c>
+      <c r="N2" s="35">
+        <v>9</v>
+      </c>
+      <c r="O2" s="35">
+        <v>10</v>
+      </c>
+      <c r="P2" s="35">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="35">
+        <v>12</v>
+      </c>
+      <c r="R2" s="35">
+        <v>13</v>
+      </c>
+      <c r="S2" s="35">
+        <v>14</v>
+      </c>
+      <c r="T2" s="35">
+        <v>15</v>
+      </c>
+      <c r="U2" s="36">
+        <v>16</v>
+      </c>
+      <c r="W2" s="39"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="45">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="45">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="45">
+        <v>4</v>
+      </c>
+      <c r="AD2" s="45">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="45">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="45">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="45">
+        <v>8</v>
+      </c>
+      <c r="AH2" s="45">
+        <v>9</v>
+      </c>
+      <c r="AI2" s="45">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="45">
+        <v>11</v>
+      </c>
+      <c r="AK2" s="45">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="45">
+        <v>13</v>
+      </c>
+      <c r="AM2" s="45">
+        <v>14</v>
+      </c>
+      <c r="AN2" s="46">
+        <v>15</v>
+      </c>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+    </row>
+    <row r="3" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E3" s="37">
+        <v>1</v>
+      </c>
+      <c r="F3" s="40">
+        <v>0</v>
+      </c>
+      <c r="G3" s="40">
+        <v>0</v>
+      </c>
+      <c r="H3" s="40">
+        <v>5</v>
+      </c>
+      <c r="I3" s="40">
+        <v>70</v>
+      </c>
+      <c r="J3" s="40">
+        <v>0</v>
+      </c>
+      <c r="K3" s="40">
+        <v>0</v>
+      </c>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="41"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="48" t="str">
+        <f ca="1">DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(OFFSET($F3,0,FLOOR(Y$2/2,1))),4-MOD(Y$2,2)*4),15))</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="49" t="str">
+        <f t="shared" ref="Z3:AN18" ca="1" si="0">DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(OFFSET($F3,0,FLOOR(Z$2/2,1))),4-MOD(Z$2,2)*4),15))</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AF3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
+      <c r="AS3" s="39"/>
+      <c r="AT3" s="39"/>
+      <c r="AU3" s="39"/>
+      <c r="AV3" s="39"/>
+      <c r="AW3" s="39"/>
+      <c r="AX3" s="39"/>
+      <c r="AY3" s="39"/>
+      <c r="AZ3" s="39"/>
+      <c r="BA3" s="39"/>
+      <c r="BB3" s="39"/>
+      <c r="BC3" s="39"/>
+      <c r="BD3" s="39"/>
+      <c r="BE3" s="39"/>
+      <c r="BF3" s="39"/>
+      <c r="BG3" s="39"/>
+    </row>
+    <row r="4" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E4" s="37">
+        <v>2</v>
+      </c>
+      <c r="F4" s="40">
+        <v>0</v>
+      </c>
+      <c r="G4" s="40">
+        <v>69</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="40">
+        <v>97</v>
+      </c>
+      <c r="K4" s="40">
+        <v>10</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="41"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="47">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="52" t="str">
+        <f t="shared" ref="Y4:Y18" ca="1" si="1">DEC2HEX(_xlfn.BITAND(_xlfn.BITRSHIFT(HEX2DEC(OFFSET($F4,0,FLOOR(Y$2/2,1))),4-MOD(Y$2,2)*4),15))</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="AE4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="AF4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AG4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AH4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
+      <c r="AU4" s="39"/>
+      <c r="AV4" s="39"/>
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+    </row>
+    <row r="5" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E5" s="37">
+        <v>3</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>5</v>
+      </c>
+      <c r="I5" s="40">
+        <v>70</v>
+      </c>
+      <c r="J5" s="40">
+        <v>0</v>
+      </c>
+      <c r="K5" s="40">
+        <v>0</v>
+      </c>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="41"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="47">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AE5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AF5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="39"/>
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="39"/>
+      <c r="AR5" s="39"/>
+      <c r="AS5" s="39"/>
+      <c r="AT5" s="39"/>
+      <c r="AU5" s="39"/>
+      <c r="AV5" s="39"/>
+      <c r="AW5" s="39"/>
+      <c r="AX5" s="39"/>
+      <c r="AY5" s="39"/>
+      <c r="AZ5" s="39"/>
+      <c r="BA5" s="39"/>
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="39"/>
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+    </row>
+    <row r="6" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E6" s="37">
+        <v>4</v>
+      </c>
+      <c r="F6" s="40">
+        <v>19</v>
+      </c>
+      <c r="G6" s="40">
+        <v>99</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="40">
+        <v>99</v>
+      </c>
+      <c r="K6" s="40">
+        <v>93</v>
+      </c>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="41"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="47">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AA6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="AE6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="AF6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AG6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AH6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AI6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AK6" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN6" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO6" s="39"/>
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="39"/>
+      <c r="AR6" s="39"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="39"/>
+      <c r="AU6" s="39"/>
+      <c r="AV6" s="39"/>
+      <c r="AW6" s="39"/>
+      <c r="AX6" s="39"/>
+      <c r="AY6" s="39"/>
+      <c r="AZ6" s="39"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="39"/>
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="39"/>
+      <c r="BF6" s="39"/>
+      <c r="BG6" s="39"/>
+    </row>
+    <row r="7" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E7" s="37">
+        <v>5</v>
+      </c>
+      <c r="F7" s="40">
+        <v>0</v>
+      </c>
+      <c r="G7" s="40">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40">
+        <v>0</v>
+      </c>
+      <c r="I7" s="40">
+        <v>0</v>
+      </c>
+      <c r="J7" s="40">
+        <v>0</v>
+      </c>
+      <c r="K7" s="40">
+        <v>0</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="41"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="47">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="39"/>
+      <c r="AP7" s="39"/>
+      <c r="AQ7" s="39"/>
+      <c r="AR7" s="39"/>
+      <c r="AS7" s="39"/>
+      <c r="AT7" s="39"/>
+      <c r="AU7" s="39"/>
+      <c r="AV7" s="39"/>
+      <c r="AW7" s="39"/>
+      <c r="AX7" s="39"/>
+      <c r="AY7" s="39"/>
+      <c r="AZ7" s="39"/>
+      <c r="BA7" s="39"/>
+      <c r="BB7" s="39"/>
+      <c r="BC7" s="39"/>
+      <c r="BD7" s="39"/>
+      <c r="BE7" s="39"/>
+      <c r="BF7" s="39"/>
+      <c r="BG7" s="39"/>
+    </row>
+    <row r="8" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E8" s="37">
+        <v>6</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0</v>
+      </c>
+      <c r="G8" s="40">
+        <v>39</v>
+      </c>
+      <c r="H8" s="40">
+        <v>99</v>
+      </c>
+      <c r="I8" s="40">
+        <v>99</v>
+      </c>
+      <c r="J8" s="40">
+        <v>95</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="41"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="47">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AC8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AE8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AF8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AG8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AH8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK8" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN8" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="39"/>
+      <c r="AP8" s="39"/>
+      <c r="AQ8" s="39"/>
+      <c r="AR8" s="39"/>
+      <c r="AS8" s="39"/>
+      <c r="AT8" s="39"/>
+      <c r="AU8" s="39"/>
+      <c r="AV8" s="39"/>
+      <c r="AW8" s="39"/>
+      <c r="AX8" s="39"/>
+      <c r="AY8" s="39"/>
+      <c r="AZ8" s="39"/>
+      <c r="BA8" s="39"/>
+      <c r="BB8" s="39"/>
+      <c r="BC8" s="39"/>
+      <c r="BD8" s="39"/>
+      <c r="BE8" s="39"/>
+      <c r="BF8" s="39"/>
+      <c r="BG8" s="39"/>
+    </row>
+    <row r="9" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E9" s="37">
+        <v>7</v>
+      </c>
+      <c r="F9" s="40">
+        <v>0</v>
+      </c>
+      <c r="G9" s="40">
+        <v>36</v>
+      </c>
+      <c r="H9" s="40">
+        <v>0</v>
+      </c>
+      <c r="I9" s="40">
+        <v>0</v>
+      </c>
+      <c r="J9" s="40">
+        <v>36</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="41"/>
+      <c r="W9" s="39"/>
+      <c r="X9" s="47">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AI9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="39"/>
+      <c r="AR9" s="39"/>
+      <c r="AS9" s="39"/>
+      <c r="AT9" s="39"/>
+      <c r="AU9" s="39"/>
+      <c r="AV9" s="39"/>
+      <c r="AW9" s="39"/>
+      <c r="AX9" s="39"/>
+      <c r="AY9" s="39"/>
+      <c r="AZ9" s="39"/>
+      <c r="BA9" s="39"/>
+      <c r="BB9" s="39"/>
+      <c r="BC9" s="39"/>
+      <c r="BD9" s="39"/>
+      <c r="BE9" s="39"/>
+      <c r="BF9" s="39"/>
+      <c r="BG9" s="39"/>
+    </row>
+    <row r="10" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E10" s="37">
+        <v>8</v>
+      </c>
+      <c r="F10" s="40">
+        <v>0</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="40">
+        <v>99</v>
+      </c>
+      <c r="I10" s="40">
+        <v>99</v>
+      </c>
+      <c r="J10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="41"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="47">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AB10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="AC10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AE10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AF10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AG10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="AH10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AI10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="39"/>
+      <c r="AP10" s="39"/>
+      <c r="AQ10" s="39"/>
+      <c r="AR10" s="39"/>
+      <c r="AS10" s="39"/>
+      <c r="AT10" s="39"/>
+      <c r="AU10" s="39"/>
+      <c r="AV10" s="39"/>
+      <c r="AW10" s="39"/>
+      <c r="AX10" s="39"/>
+      <c r="AY10" s="39"/>
+      <c r="AZ10" s="39"/>
+      <c r="BA10" s="39"/>
+      <c r="BB10" s="39"/>
+      <c r="BC10" s="39"/>
+      <c r="BD10" s="39"/>
+      <c r="BE10" s="39"/>
+      <c r="BF10" s="39"/>
+      <c r="BG10" s="39"/>
+    </row>
+    <row r="11" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E11" s="37">
+        <v>9</v>
+      </c>
+      <c r="F11" s="40">
+        <v>0</v>
+      </c>
+      <c r="G11" s="40">
+        <v>5</v>
+      </c>
+      <c r="H11" s="40">
+        <v>93</v>
+      </c>
+      <c r="I11" s="40">
+        <v>63</v>
+      </c>
+      <c r="J11" s="40">
+        <v>39</v>
+      </c>
+      <c r="K11" s="40">
+        <v>30</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
+      <c r="U11" s="41"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="47">
+        <v>8</v>
+      </c>
+      <c r="Y11" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AD11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AG11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AH11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AI11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="39"/>
+      <c r="AP11" s="39"/>
+      <c r="AQ11" s="39"/>
+      <c r="AR11" s="39"/>
+      <c r="AS11" s="39"/>
+      <c r="AT11" s="39"/>
+      <c r="AU11" s="39"/>
+      <c r="AV11" s="39"/>
+      <c r="AW11" s="39"/>
+      <c r="AX11" s="39"/>
+      <c r="AY11" s="39"/>
+      <c r="AZ11" s="39"/>
+      <c r="BA11" s="39"/>
+      <c r="BB11" s="39"/>
+      <c r="BC11" s="39"/>
+      <c r="BD11" s="39"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+    </row>
+    <row r="12" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E12" s="37">
+        <v>10</v>
+      </c>
+      <c r="F12" s="40">
+        <v>27</v>
+      </c>
+      <c r="G12" s="40">
+        <v>96</v>
+      </c>
+      <c r="H12" s="40">
+        <v>64</v>
+      </c>
+      <c r="I12" s="40">
+        <v>37</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="41"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="47">
+        <v>9</v>
+      </c>
+      <c r="Y12" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Z12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AA12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AB12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AC12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AD12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AE12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AF12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AG12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="AH12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AI12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="39"/>
+      <c r="AP12" s="39"/>
+      <c r="AQ12" s="39"/>
+      <c r="AR12" s="39"/>
+      <c r="AS12" s="39"/>
+      <c r="AT12" s="39"/>
+      <c r="AU12" s="39"/>
+      <c r="AV12" s="39"/>
+      <c r="AW12" s="39"/>
+      <c r="AX12" s="39"/>
+      <c r="AY12" s="39"/>
+      <c r="AZ12" s="39"/>
+      <c r="BA12" s="39"/>
+      <c r="BB12" s="39"/>
+      <c r="BC12" s="39"/>
+      <c r="BD12" s="39"/>
+      <c r="BE12" s="39"/>
+      <c r="BF12" s="39"/>
+      <c r="BG12" s="39"/>
+    </row>
+    <row r="13" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E13" s="37">
+        <v>11</v>
+      </c>
+      <c r="F13" s="40">
+        <v>0</v>
+      </c>
+      <c r="G13" s="40">
+        <v>5</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="40">
+        <v>0</v>
+      </c>
+      <c r="J13" s="40">
+        <v>4</v>
+      </c>
+      <c r="K13" s="40">
+        <v>73</v>
+      </c>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="41"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="47">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AC13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="AD13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AI13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AJ13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AK13" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="39"/>
+      <c r="AP13" s="39"/>
+      <c r="AQ13" s="39"/>
+      <c r="AR13" s="39"/>
+      <c r="AS13" s="39"/>
+      <c r="AT13" s="39"/>
+      <c r="AU13" s="39"/>
+      <c r="AV13" s="39"/>
+      <c r="AW13" s="39"/>
+      <c r="AX13" s="39"/>
+      <c r="AY13" s="39"/>
+      <c r="AZ13" s="39"/>
+      <c r="BA13" s="39"/>
+      <c r="BB13" s="39"/>
+      <c r="BC13" s="39"/>
+      <c r="BD13" s="39"/>
+      <c r="BE13" s="39"/>
+      <c r="BF13" s="39"/>
+      <c r="BG13" s="39"/>
+    </row>
+    <row r="14" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E14" s="37">
+        <v>12</v>
+      </c>
+      <c r="F14" s="40">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40">
+        <v>0</v>
+      </c>
+      <c r="I14" s="40">
+        <v>0</v>
+      </c>
+      <c r="J14" s="40">
+        <v>0</v>
+      </c>
+      <c r="K14" s="40">
+        <v>0</v>
+      </c>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="41"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="47">
+        <v>11</v>
+      </c>
+      <c r="Y14" s="52" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="39"/>
+      <c r="AP14" s="39"/>
+      <c r="AQ14" s="39"/>
+      <c r="AR14" s="39"/>
+      <c r="AS14" s="39"/>
+      <c r="AT14" s="39"/>
+      <c r="AU14" s="39"/>
+      <c r="AV14" s="39"/>
+      <c r="AW14" s="39"/>
+      <c r="AX14" s="39"/>
+      <c r="AY14" s="39"/>
+      <c r="AZ14" s="39"/>
+      <c r="BA14" s="39"/>
+      <c r="BB14" s="39"/>
+      <c r="BC14" s="39"/>
+      <c r="BD14" s="39"/>
+      <c r="BE14" s="39"/>
+      <c r="BF14" s="39"/>
+      <c r="BG14" s="39"/>
+    </row>
+    <row r="15" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E15" s="37">
+        <v>13</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="41"/>
+      <c r="W15" s="39"/>
+      <c r="X15" s="47">
+        <v>12</v>
+      </c>
+      <c r="Y15" s="54" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM15" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN15" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="39"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="39"/>
+      <c r="AR15" s="39"/>
+      <c r="AS15" s="39"/>
+      <c r="AT15" s="39"/>
+      <c r="AU15" s="39"/>
+      <c r="AV15" s="39"/>
+      <c r="AW15" s="39"/>
+      <c r="AX15" s="39"/>
+      <c r="AY15" s="39"/>
+      <c r="AZ15" s="39"/>
+      <c r="BA15" s="39"/>
+      <c r="BB15" s="39"/>
+      <c r="BC15" s="39"/>
+      <c r="BD15" s="39"/>
+      <c r="BE15" s="39"/>
+      <c r="BF15" s="39"/>
+      <c r="BG15" s="39"/>
+    </row>
+    <row r="16" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E16" s="37">
+        <v>14</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="41"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="47">
+        <v>13</v>
+      </c>
+      <c r="Y16" s="51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="39"/>
+      <c r="AP16" s="39"/>
+      <c r="AQ16" s="39"/>
+      <c r="AR16" s="39"/>
+      <c r="AS16" s="39"/>
+      <c r="AT16" s="39"/>
+      <c r="AU16" s="39"/>
+      <c r="AV16" s="39"/>
+      <c r="AW16" s="39"/>
+      <c r="AX16" s="39"/>
+      <c r="AY16" s="39"/>
+      <c r="AZ16" s="39"/>
+      <c r="BA16" s="39"/>
+      <c r="BB16" s="39"/>
+      <c r="BC16" s="39"/>
+      <c r="BD16" s="39"/>
+      <c r="BE16" s="39"/>
+      <c r="BF16" s="39"/>
+      <c r="BG16" s="39"/>
+    </row>
+    <row r="17" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="E17" s="37">
+        <v>15</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="41"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="47">
+        <v>14</v>
+      </c>
+      <c r="Y17" s="51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="39"/>
+      <c r="AP17" s="39"/>
+      <c r="AQ17" s="39"/>
+      <c r="AR17" s="39"/>
+      <c r="AS17" s="39"/>
+      <c r="AT17" s="39"/>
+      <c r="AU17" s="39"/>
+      <c r="AV17" s="39"/>
+      <c r="AW17" s="39"/>
+      <c r="AX17" s="39"/>
+      <c r="AY17" s="39"/>
+      <c r="AZ17" s="39"/>
+      <c r="BA17" s="39"/>
+      <c r="BB17" s="39"/>
+      <c r="BC17" s="39"/>
+      <c r="BD17" s="39"/>
+      <c r="BE17" s="39"/>
+      <c r="BF17" s="39"/>
+      <c r="BG17" s="39"/>
+    </row>
+    <row r="18" spans="5:59" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="38">
+        <v>16</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="43"/>
+      <c r="W18" s="39"/>
+      <c r="X18" s="57">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="51" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="39"/>
+      <c r="AS18" s="39"/>
+      <c r="AT18" s="39"/>
+      <c r="AU18" s="39"/>
+      <c r="AV18" s="39"/>
+      <c r="AW18" s="39"/>
+      <c r="AX18" s="39"/>
+      <c r="AY18" s="39"/>
+      <c r="AZ18" s="39"/>
+      <c r="BA18" s="39"/>
+      <c r="BB18" s="39"/>
+      <c r="BC18" s="39"/>
+      <c r="BD18" s="39"/>
+      <c r="BE18" s="39"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="39"/>
+    </row>
+    <row r="19" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="W19" s="39"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="39"/>
+      <c r="AK19" s="39"/>
+      <c r="AL19" s="39"/>
+      <c r="AM19" s="39"/>
+      <c r="AN19" s="39"/>
+      <c r="AO19" s="39"/>
+      <c r="AP19" s="39"/>
+      <c r="AQ19" s="39"/>
+      <c r="AR19" s="39"/>
+      <c r="AS19" s="39"/>
+      <c r="AT19" s="39"/>
+      <c r="AU19" s="39"/>
+      <c r="AV19" s="39"/>
+      <c r="AW19" s="39"/>
+      <c r="AX19" s="39"/>
+      <c r="AY19" s="39"/>
+      <c r="AZ19" s="39"/>
+      <c r="BA19" s="39"/>
+      <c r="BB19" s="39"/>
+      <c r="BC19" s="39"/>
+      <c r="BD19" s="39"/>
+      <c r="BE19" s="39"/>
+      <c r="BF19" s="39"/>
+      <c r="BG19" s="39"/>
+    </row>
+    <row r="20" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+    </row>
+    <row r="21" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="W21" s="39"/>
+      <c r="X21" s="39"/>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="39"/>
+      <c r="AA21" s="39"/>
+      <c r="AB21" s="39"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="39"/>
+      <c r="AK21" s="39"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="39"/>
+      <c r="AN21" s="39"/>
+      <c r="AO21" s="39"/>
+      <c r="AP21" s="39"/>
+      <c r="AQ21" s="39"/>
+      <c r="AR21" s="39"/>
+      <c r="AS21" s="39"/>
+      <c r="AT21" s="39"/>
+      <c r="AU21" s="39"/>
+      <c r="AV21" s="39"/>
+      <c r="AW21" s="39"/>
+      <c r="AX21" s="39"/>
+      <c r="AY21" s="39"/>
+      <c r="AZ21" s="39"/>
+      <c r="BA21" s="39"/>
+      <c r="BB21" s="39"/>
+      <c r="BC21" s="39"/>
+      <c r="BD21" s="39"/>
+      <c r="BE21" s="39"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="39"/>
+    </row>
+    <row r="22" spans="5:59" x14ac:dyDescent="0.2">
+      <c r="W22" s="39"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="39"/>
+      <c r="AK22" s="39"/>
+      <c r="AL22" s="39"/>
+      <c r="AM22" s="39"/>
+      <c r="AN22" s="39"/>
+      <c r="AO22" s="39"/>
+      <c r="AP22" s="39"/>
+      <c r="AQ22" s="39"/>
+      <c r="AR22" s="39"/>
+      <c r="AS22" s="39"/>
+      <c r="AT22" s="39"/>
+      <c r="AU22" s="39"/>
+      <c r="AV22" s="39"/>
+      <c r="AW22" s="39"/>
+      <c r="AX22" s="39"/>
+      <c r="AY22" s="39"/>
+      <c r="AZ22" s="39"/>
+      <c r="BA22" s="39"/>
+      <c r="BB22" s="39"/>
+      <c r="BC22" s="39"/>
+      <c r="BD22" s="39"/>
+      <c r="BE22" s="39"/>
+      <c r="BF22" s="39"/>
+      <c r="BG22" s="39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="Y3:AN18">
+    <cfRule type="expression" dxfId="15" priority="1">
+      <formula>IF(Y3="F",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>IF(Y3="E",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>IF(Y3="D",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="4">
+      <formula>IF(Y3="C",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="5">
+      <formula>IF(Y3="B",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="6">
+      <formula>IF(Y3="A",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="7">
+      <formula>IF(Y3="9",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>IF(Y3="8",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>IF(Y3="7",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>IF(Y3="6",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="11">
+      <formula>IF(Y3="5",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="12">
+      <formula>IF(Y3="4",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="13">
+      <formula>IF(Y3="3",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>IF(Y3="2",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>IF(Y3="1",1,0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>IF(Y3="0",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>